--- a/5BusData_FreqMarket_PESGM.xlsx
+++ b/5BusData_FreqMarket_PESGM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AcademicFiles\J2_Inertia convex hull pricing\PESGM_file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1171A0-1E8D-4EF1-A1E8-4F96FE2FAEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC6D3821-CE17-4532-B463-BF6ACE4E4382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33704" yWindow="2038" windowWidth="14142" windowHeight="11058" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34859" yWindow="3668" windowWidth="14142" windowHeight="11058" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>No</t>
   </si>
@@ -48,22 +48,10 @@
     <t>Maximum PFR reserve (MW)</t>
   </si>
   <si>
-    <t>Upward regulation reserve capacity (MW)</t>
-  </si>
-  <si>
-    <t>Downward regulation reserve capacity (MW)</t>
-  </si>
-  <si>
     <t>Generation cost ($/MWh)</t>
   </si>
   <si>
     <t>No-load cost ($)</t>
-  </si>
-  <si>
-    <t>Cost of upward regulation reserve capacity ($/MWh)</t>
-  </si>
-  <si>
-    <t>Cost of downward regulation reserve capacity ($/MWh)</t>
   </si>
   <si>
     <t>PFR reserve cost ($/MWh)</t>
@@ -118,10 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Curtailment penalty ($/MWh)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Inertia Capacity of WF1 (MWs/Hz)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -147,10 +131,6 @@
   </si>
   <si>
     <t>Wind speed 3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inertia control power loss factor</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -242,7 +222,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,7 +243,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -577,16 +556,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1252C5-678A-4614-89C2-2A55E70EE4AC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,13 +616,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C8AFFB-07FD-4736-958A-75A9796436D7}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -660,31 +639,19 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -702,34 +669,20 @@
         <v>18</v>
       </c>
       <c r="F2">
-        <f>D2*0.2</f>
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <f>D2*0.2</f>
-        <v>36</v>
-      </c>
-      <c r="H2">
         <f>0.1*D2</f>
         <v>18</v>
       </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
       <c r="I2">
-        <v>29</v>
-      </c>
-      <c r="J2">
-        <v>80</v>
-      </c>
-      <c r="K2">
-        <v>8</v>
-      </c>
-      <c r="L2">
-        <v>8</v>
-      </c>
-      <c r="M2">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -747,34 +700,20 @@
         <v>13</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F5" si="1">D3*0.2</f>
-        <v>26</v>
+        <f t="shared" ref="F3:F5" si="1">0.1*D3</f>
+        <v>13</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G5" si="2">D3*0.2</f>
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H5" si="3">0.1*D3</f>
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>24</v>
-      </c>
-      <c r="J3">
-        <v>60</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -793,33 +732,19 @@
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4">
-        <f t="shared" si="3"/>
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>27</v>
-      </c>
-      <c r="J4">
-        <v>60</v>
-      </c>
-      <c r="K4">
-        <v>7</v>
-      </c>
-      <c r="L4">
-        <v>7</v>
-      </c>
-      <c r="M4">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -838,29 +763,15 @@
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <f t="shared" si="3"/>
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I5">
-        <v>31</v>
-      </c>
-      <c r="J5">
-        <v>80</v>
-      </c>
-      <c r="K5">
-        <v>9</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
         <v>20</v>
       </c>
     </row>
@@ -872,38 +783,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C65CE9EF-1C28-4A84-A4A5-B4BE46255214}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="16.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="42.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="42.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -914,16 +817,10 @@
         <v>180</v>
       </c>
       <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -934,16 +831,10 @@
         <v>160</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -954,12 +845,6 @@
         <v>100</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
         <v>3</v>
       </c>
     </row>
@@ -979,25 +864,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,40 +1045,40 @@
   <sheetData>
     <row r="1" spans="1:14" ht="29.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -2187,8 +2072,8 @@
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>40</v>
+      <c r="A28" t="s">
+        <v>34</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="5"/>
@@ -2374,31 +2259,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="29.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2564,8 +2449,8 @@
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>38</v>
+      <c r="A8" t="s">
+        <v>32</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -2714,37 +2599,37 @@
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1" ht="29.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2786,8 +2671,8 @@
       <c r="N2" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
-        <v>39</v>
+      <c r="A8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
